--- a/table.xlsx
+++ b/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/pictortho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B377185-54B4-C84C-B1A5-FAA5F9C1DB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3D7C5E-F93F-C147-BEB3-6A2F334BA9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{EAE82A22-D388-4CC3-B29B-5599DEFA8F8C}"/>
+    <workbookView xWindow="5120" yWindow="1260" windowWidth="23040" windowHeight="14360" xr2:uid="{EAE82A22-D388-4CC3-B29B-5599DEFA8F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="321">
   <si>
     <t>Pictogrammes</t>
   </si>
@@ -81,6 +81,9 @@
     <t>aujourd'hui.png</t>
   </si>
   <si>
+    <t xml:space="preserve">avec </t>
+  </si>
+  <si>
     <t>balayer</t>
   </si>
   <si>
@@ -447,9 +450,6 @@
     <t>trou</t>
   </si>
   <si>
-    <t>T-shirt</t>
-  </si>
-  <si>
     <t>vacances</t>
   </si>
   <si>
@@ -777,9 +777,6 @@
     <t>trou.png</t>
   </si>
   <si>
-    <t>T-shirt.png</t>
-  </si>
-  <si>
     <t>vacances.png</t>
   </si>
   <si>
@@ -798,10 +795,208 @@
     <t>week-end.png</t>
   </si>
   <si>
+    <t>beurre</t>
+  </si>
+  <si>
+    <t>beurre.png</t>
+  </si>
+  <si>
+    <t>caramel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casser </t>
+  </si>
+  <si>
+    <t>crème liquide</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>poêle</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>tremper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rouge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">violet </t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>vanille</t>
+  </si>
+  <si>
+    <t>chocolat</t>
+  </si>
+  <si>
+    <t>lait</t>
+  </si>
+  <si>
+    <t>sucre</t>
+  </si>
+  <si>
+    <t>farine</t>
+  </si>
+  <si>
+    <t>caramel.png</t>
+  </si>
+  <si>
+    <t>casser.png</t>
+  </si>
+  <si>
+    <t>crème liquide.png</t>
+  </si>
+  <si>
+    <t>pain.png</t>
+  </si>
+  <si>
+    <t>poêle.png</t>
+  </si>
+  <si>
+    <t>sel.png</t>
+  </si>
+  <si>
+    <t>tremper.png</t>
+  </si>
+  <si>
+    <t>rouge.png</t>
+  </si>
+  <si>
+    <t>vert.png</t>
+  </si>
+  <si>
+    <t>violet.png</t>
+  </si>
+  <si>
+    <t>noir.png</t>
+  </si>
+  <si>
+    <t>vanille.png</t>
+  </si>
+  <si>
+    <t>chocolat.png</t>
+  </si>
+  <si>
+    <t>lait.png</t>
+  </si>
+  <si>
+    <t>sucre.png</t>
+  </si>
+  <si>
+    <t>farine.png</t>
+  </si>
+  <si>
+    <t>avoine</t>
+  </si>
+  <si>
+    <t>avoine.png</t>
+  </si>
+  <si>
+    <t>bol</t>
+  </si>
+  <si>
+    <t>bol.png</t>
+  </si>
+  <si>
+    <t>casser les œufs</t>
+  </si>
+  <si>
+    <t>crème fouettée</t>
+  </si>
+  <si>
+    <t>creuser</t>
+  </si>
+  <si>
+    <t>cuillère en bois</t>
+  </si>
+  <si>
+    <t>fouet</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>huile</t>
+  </si>
+  <si>
+    <t>noix de coco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pâte </t>
+  </si>
+  <si>
+    <t>sirop de caramel</t>
+  </si>
+  <si>
+    <t>tarte</t>
+  </si>
+  <si>
+    <t>tartiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanille </t>
+  </si>
+  <si>
+    <t>casser les œufs.png</t>
+  </si>
+  <si>
+    <t>crème fouettée.png</t>
+  </si>
+  <si>
+    <t>creuser.png</t>
+  </si>
+  <si>
+    <t>cuillère en bois.png</t>
+  </si>
+  <si>
+    <t>fouet.png</t>
+  </si>
+  <si>
+    <t>fruits.png</t>
+  </si>
+  <si>
+    <t>huile.png</t>
+  </si>
+  <si>
+    <t>noix de coco.png</t>
+  </si>
+  <si>
+    <t>pâte.png</t>
+  </si>
+  <si>
+    <t>sirop de caramel.png</t>
+  </si>
+  <si>
+    <t>tarte.png</t>
+  </si>
+  <si>
+    <t>tartiner.png</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>t-shirt.png</t>
+  </si>
+  <si>
+    <t>jaune d'oeuf.png</t>
+  </si>
+  <si>
+    <t>jaune d'oeuf</t>
+  </si>
+  <si>
     <t>Mots écrits</t>
-  </si>
-  <si>
-    <t>avec</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1052,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1145,7 +1340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1153,17 +1348,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EEEFEF-5303-4618-A087-D18CB691A657}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1227,87 +1426,87 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>144</v>
@@ -1315,7 +1514,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>145</v>
@@ -1323,7 +1522,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>146</v>
@@ -1331,7 +1530,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>147</v>
@@ -1339,7 +1538,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>148</v>
@@ -1347,7 +1546,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>149</v>
@@ -1355,7 +1554,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>150</v>
@@ -1363,7 +1562,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>151</v>
@@ -1371,7 +1570,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>152</v>
@@ -1379,7 +1578,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>153</v>
@@ -1387,7 +1586,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>154</v>
@@ -1395,7 +1594,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>155</v>
@@ -1403,7 +1602,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>156</v>
@@ -1411,7 +1610,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>157</v>
@@ -1419,7 +1618,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>158</v>
@@ -1427,7 +1626,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>159</v>
@@ -1435,7 +1634,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>160</v>
@@ -1443,7 +1642,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>161</v>
@@ -1451,7 +1650,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>162</v>
@@ -1459,7 +1658,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>163</v>
@@ -1467,7 +1666,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>164</v>
@@ -1475,7 +1674,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>165</v>
@@ -1483,7 +1682,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>166</v>
@@ -1491,7 +1690,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>167</v>
@@ -1499,7 +1698,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>168</v>
@@ -1507,7 +1706,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>169</v>
@@ -1515,7 +1714,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>170</v>
@@ -1523,7 +1722,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>171</v>
@@ -1531,7 +1730,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>172</v>
@@ -1539,7 +1738,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>173</v>
@@ -1547,7 +1746,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>174</v>
@@ -1555,7 +1754,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
         <v>175</v>
@@ -1563,7 +1762,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
         <v>176</v>
@@ -1571,7 +1770,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>177</v>
@@ -1579,7 +1778,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
         <v>178</v>
@@ -1587,7 +1786,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>179</v>
@@ -1595,7 +1794,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>180</v>
@@ -1603,7 +1802,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
         <v>181</v>
@@ -1611,7 +1810,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>182</v>
@@ -1619,7 +1818,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
         <v>183</v>
@@ -1627,7 +1826,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>184</v>
@@ -1635,7 +1834,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
         <v>185</v>
@@ -1643,7 +1842,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
         <v>186</v>
@@ -1651,7 +1850,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
         <v>187</v>
@@ -1659,7 +1858,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
         <v>188</v>
@@ -1667,7 +1866,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
         <v>189</v>
@@ -1675,7 +1874,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
         <v>190</v>
@@ -1683,7 +1882,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
         <v>191</v>
@@ -1691,7 +1890,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
         <v>192</v>
@@ -1699,7 +1898,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
         <v>193</v>
@@ -1707,7 +1906,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
         <v>194</v>
@@ -1715,7 +1914,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
         <v>195</v>
@@ -1723,7 +1922,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
         <v>196</v>
@@ -1731,7 +1930,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
         <v>197</v>
@@ -1739,7 +1938,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>198</v>
@@ -1747,7 +1946,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
         <v>199</v>
@@ -1755,7 +1954,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
         <v>200</v>
@@ -1763,7 +1962,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
         <v>201</v>
@@ -1771,7 +1970,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
         <v>202</v>
@@ -1779,7 +1978,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
         <v>203</v>
@@ -1787,7 +1986,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
         <v>204</v>
@@ -1795,7 +1994,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
         <v>205</v>
@@ -1803,7 +2002,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>206</v>
@@ -1811,7 +2010,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
         <v>207</v>
@@ -1819,7 +2018,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
         <v>208</v>
@@ -1827,7 +2026,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
         <v>209</v>
@@ -1835,7 +2034,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
         <v>210</v>
@@ -1843,7 +2042,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
         <v>211</v>
@@ -1851,7 +2050,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
         <v>212</v>
@@ -1859,7 +2058,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
         <v>213</v>
@@ -1867,7 +2066,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
         <v>214</v>
@@ -1875,7 +2074,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
         <v>215</v>
@@ -1883,7 +2082,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>216</v>
@@ -1891,7 +2090,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
         <v>217</v>
@@ -1899,7 +2098,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
         <v>218</v>
@@ -1907,7 +2106,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
         <v>219</v>
@@ -1915,7 +2114,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
         <v>220</v>
@@ -1923,7 +2122,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
         <v>221</v>
@@ -1931,7 +2130,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
         <v>222</v>
@@ -1939,7 +2138,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
         <v>223</v>
@@ -1947,7 +2146,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
         <v>224</v>
@@ -1955,7 +2154,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
         <v>225</v>
@@ -1963,7 +2162,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
         <v>226</v>
@@ -1971,7 +2170,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
         <v>227</v>
@@ -1979,7 +2178,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
         <v>228</v>
@@ -1987,7 +2186,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
         <v>229</v>
@@ -1995,7 +2194,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
         <v>230</v>
@@ -2003,7 +2202,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
         <v>231</v>
@@ -2011,7 +2210,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B107" t="s">
         <v>232</v>
@@ -2019,7 +2218,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
         <v>233</v>
@@ -2027,7 +2226,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
         <v>234</v>
@@ -2035,7 +2234,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
         <v>235</v>
@@ -2043,7 +2242,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
         <v>236</v>
@@ -2051,7 +2250,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
         <v>237</v>
@@ -2059,7 +2258,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
         <v>238</v>
@@ -2067,7 +2266,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
         <v>239</v>
@@ -2075,7 +2274,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
         <v>240</v>
@@ -2083,7 +2282,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
         <v>241</v>
@@ -2091,7 +2290,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
         <v>242</v>
@@ -2099,7 +2298,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
         <v>243</v>
@@ -2107,7 +2306,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
         <v>244</v>
@@ -2115,7 +2314,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
         <v>245</v>
@@ -2123,7 +2322,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
         <v>246</v>
@@ -2131,10 +2330,10 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>316</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2142,7 +2341,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2150,7 +2349,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2158,7 +2357,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2166,7 +2365,7 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2174,7 +2373,7 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2182,10 +2381,291 @@
         <v>143</v>
       </c>
       <c r="B128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>253</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>265</v>
+      </c>
+      <c r="B142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>268</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>291</v>
+      </c>
+      <c r="B150" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>294</v>
+      </c>
+      <c r="B153" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>295</v>
+      </c>
+      <c r="B154" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>296</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>297</v>
+      </c>
+      <c r="B156" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>298</v>
+      </c>
+      <c r="B158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>299</v>
+      </c>
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>300</v>
+      </c>
+      <c r="B160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>303</v>
+      </c>
+      <c r="B163" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>